--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdInsurer.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdInsurer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EAAEF9-84CF-4BB1-8D58-7C92FD55F351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -280,14 +281,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Y:啟用,N:停用</t>
+    <t>Y:啟用
+N:停用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -589,8 +591,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -681,6 +683,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -716,6 +735,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -891,11 +927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1173,7 +1209,7 @@
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="32.4">
       <c r="A17" s="29">
         <v>9</v>
       </c>
@@ -1324,7 +1360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
